--- a/Arbeitsverlauf/Dokumentation Arbeitsverlauf Dimitri Khodak.xlsx
+++ b/Arbeitsverlauf/Dokumentation Arbeitsverlauf Dimitri Khodak.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5EE27-5A01-41A9-A430-7734F465E79D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA86A73E-A05B-42FF-BC56-715AD1064ABD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mi, 26.02.2020" sheetId="1" r:id="rId1"/>
     <sheet name="Do, 27.02.2020" sheetId="2" r:id="rId2"/>
     <sheet name="Fr, 28.02.2020" sheetId="5" r:id="rId3"/>
     <sheet name="Mo, 02.03.2020" sheetId="4" r:id="rId4"/>
+    <sheet name="Di, 03.03.2020" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
   <si>
     <t>1.</t>
   </si>
@@ -119,6 +120,45 @@
   </si>
   <si>
     <t>Beziehen sich auf meine persönlichen Lern- und Arbeitsleistungen</t>
+  </si>
+  <si>
+    <t>12/13/11</t>
+  </si>
+  <si>
+    <t>Kurzeinweisung von neuem Gruppenmitglied</t>
+  </si>
+  <si>
+    <t>Erstellen der PHP-Dateien anhand von Vorlagen</t>
+  </si>
+  <si>
+    <t>Beschaffung und Aneignung von Grundlagenwissen zu PHP</t>
+  </si>
+  <si>
+    <t>Neues Gruppenmitglied</t>
+  </si>
+  <si>
+    <t>Grundlage für das Erstellen der API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      12/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12/13</t>
+  </si>
+  <si>
+    <t>Erlernen von Grundlagen in PHP und der Funktion von Webservern</t>
+  </si>
+  <si>
+    <t>Ergänzung der Datenbank um weitere Attribute</t>
+  </si>
+  <si>
+    <t>Testen der PHP-Dateien, Herunterladen der notwendigen Bibliotheken bei Github</t>
+  </si>
+  <si>
+    <t>Fokusänderung: Erstellung eigener PHP-Dateien nicht aus der Vorlage</t>
+  </si>
+  <si>
+    <t>Vollständigere Datenbank</t>
   </si>
 </sst>
 </file>
@@ -162,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -181,9 +221,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,7 +521,7 @@
       <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
@@ -617,7 +671,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
@@ -770,11 +824,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A38CED5-BC4A-4923-8880-05D5C3766799}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
@@ -901,15 +955,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14C661A-CC3F-4547-A85B-C8E5F969312E}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="71.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -920,7 +974,7 @@
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -934,13 +988,18 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
@@ -952,10 +1011,31 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -964,10 +1044,22 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -977,36 +1069,198 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="8">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31E31D0-F498-4670-AA56-8F37057BC940}">
+  <dimension ref="B1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="9" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="8">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsverlauf/Dokumentation Arbeitsverlauf Dimitri Khodak.xlsx
+++ b/Arbeitsverlauf/Dokumentation Arbeitsverlauf Dimitri Khodak.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA86A73E-A05B-42FF-BC56-715AD1064ABD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3341D4AD-A4A2-434B-9CA5-E72C73F8C4D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mi, 26.02.2020" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Fr, 28.02.2020" sheetId="5" r:id="rId3"/>
     <sheet name="Mo, 02.03.2020" sheetId="4" r:id="rId4"/>
     <sheet name="Di, 03.03.2020" sheetId="6" r:id="rId5"/>
+    <sheet name="Mi, 04.03.2020" sheetId="7" r:id="rId6"/>
+    <sheet name="Do, 05.03.2020" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
   <si>
     <t>1.</t>
   </si>
@@ -50,9 +52,6 @@
     <t>Anforderungen/Inhalte, an denen gearbeitet wurde. (getrennt nach Lernfeldern)</t>
   </si>
   <si>
-    <t>Erreichte Progression, gegenüber dem Vortag (Was wurde neu entwickelt, das gestern noch nicht vorhanden war</t>
-  </si>
-  <si>
     <t>Probleme die gelöst wurden</t>
   </si>
   <si>
@@ -159,6 +158,48 @@
   </si>
   <si>
     <t>Vollständigere Datenbank</t>
+  </si>
+  <si>
+    <t>Erstellung eines funktionierenden, lesenden und schreibenden Zugriffs auf die MySQL Datenbank mit PHP</t>
+  </si>
+  <si>
+    <t>Erstellung eines funktionierenden, lesenden Zugriffs auf die RestfulAPI mit C#-Code</t>
+  </si>
+  <si>
+    <t>Übergabe von Parametern beim Aufrufen der PHP Dateien</t>
+  </si>
+  <si>
+    <t>Abrufen von Daten aus der Datenbank auf Basis der Parameter</t>
+  </si>
+  <si>
+    <t>Erstellen des Kostenanalyseplans</t>
+  </si>
+  <si>
+    <t>Festlegen der Kostenarten</t>
+  </si>
+  <si>
+    <t>Abschätzung der jeweiligen Kosten</t>
+  </si>
+  <si>
+    <t>Erstellung einer Tabelle zur Übersicht über die Gesamtsummen der Kostenarten(Personalkosten,…)</t>
+  </si>
+  <si>
+    <t>Fertiger Kostenanalyseplan</t>
+  </si>
+  <si>
+    <t>Erreichte Progression, gegenüber dem Vortag (Was wurde neu entwickelt, das gestern noch nicht vorhanden war)</t>
+  </si>
+  <si>
+    <t>Gewinnung von Einsichten über die Kommunikation zwischen Schnittstellen</t>
+  </si>
+  <si>
+    <t>da sie im Rahmen des Projektes nur zwischen dem localhost und dem Virtual Device stattfinden darf</t>
+  </si>
+  <si>
+    <t>Erstellung einer Verbindung zwischen Smartphone und Server entfällt nach Rücksprache mit dem Lehrer,</t>
+  </si>
+  <si>
+    <t>Erstellung von PHP-Funktionen zum Zugriff von einer mobilen App</t>
   </si>
 </sst>
 </file>
@@ -202,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -234,6 +275,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,7 +568,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,16 +581,16 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -551,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -562,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -575,7 +625,7 @@
     </row>
     <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4">
         <v>12</v>
@@ -583,7 +633,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <v>12</v>
@@ -591,7 +641,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
         <v>12</v>
@@ -599,7 +649,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -610,12 +660,12 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,12 +673,12 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -636,12 +686,12 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -649,12 +699,12 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +718,7 @@
   <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,16 +731,16 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -701,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -712,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -725,7 +775,7 @@
     </row>
     <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>11</v>
@@ -733,7 +783,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
         <v>11</v>
@@ -741,7 +791,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4">
         <v>11</v>
@@ -749,7 +799,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>11</v>
@@ -757,7 +807,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4">
         <v>11</v>
@@ -768,12 +818,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -781,12 +831,12 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -794,12 +844,12 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -807,12 +857,12 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +875,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,16 +888,16 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -859,7 +909,7 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -870,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -884,7 +934,7 @@
     </row>
     <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5">
         <v>11</v>
@@ -895,13 +945,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -909,13 +959,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -923,13 +973,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -937,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +1006,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,16 +1019,16 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -990,7 +1040,7 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -998,10 +1048,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1015,15 +1065,15 @@
     </row>
     <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8">
         <v>11</v>
@@ -1031,7 +1081,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8">
         <v>11</v>
@@ -1042,21 +1092,21 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8">
         <v>11</v>
@@ -1067,13 +1117,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1081,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1095,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="8">
         <v>11</v>
@@ -1116,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31E31D0-F498-4670-AA56-8F37057BC940}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,16 +1180,16 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1151,7 +1201,7 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1159,10 +1209,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1176,7 +1226,7 @@
     </row>
     <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="11">
         <v>11</v>
@@ -1184,7 +1234,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8">
         <v>11</v>
@@ -1198,13 +1248,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="13">
         <v>11</v>
@@ -1212,7 +1262,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8">
         <v>11</v>
@@ -1223,13 +1273,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1237,13 +1287,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1251,17 +1301,406 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="8">
         <v>11</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8160CCB3-57E3-4D67-BDE8-9DADE900EB91}">
+  <dimension ref="B1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="16">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ABA197-0C93-425E-B1F6-3337A64111B6}">
+  <dimension ref="B1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Arbeitsverlauf/Dokumentation Arbeitsverlauf Dimitri Khodak.xlsx
+++ b/Arbeitsverlauf/Dokumentation Arbeitsverlauf Dimitri Khodak.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3341D4AD-A4A2-434B-9CA5-E72C73F8C4D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA66611F-C9F3-4134-9E0A-D40BD7553242}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mi, 26.02.2020" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Di, 03.03.2020" sheetId="6" r:id="rId5"/>
     <sheet name="Mi, 04.03.2020" sheetId="7" r:id="rId6"/>
     <sheet name="Do, 05.03.2020" sheetId="8" r:id="rId7"/>
+    <sheet name="Fr, 06.03.2020" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="63">
   <si>
     <t>1.</t>
   </si>
@@ -200,6 +201,21 @@
   </si>
   <si>
     <t>Erstellung von PHP-Funktionen zum Zugriff von einer mobilen App</t>
+  </si>
+  <si>
+    <t>Durch hohen Zeitdruck und eine hohe Abwesenheitsrate kann das Projektziel nicht erreicht werden</t>
+  </si>
+  <si>
+    <t>11, 12, 13</t>
+  </si>
+  <si>
+    <t>Erstellung der Doku zu Qualitätsstandards im Bezug auf das Projekt</t>
+  </si>
+  <si>
+    <t>Reflektive Einsichten und schriftliche Doku der Qualitätskriterien im Bezug auf die ISO 25010</t>
+  </si>
+  <si>
+    <t>Optimierung des Kostenanalyseplans</t>
   </si>
 </sst>
 </file>
@@ -1528,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ABA197-0C93-425E-B1F6-3337A64111B6}">
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,7 +1710,12 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="16">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
@@ -1705,4 +1726,182 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E13D8F-B92F-41EE-B491-E46B3BA9E790}">
+  <dimension ref="B1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="101.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>